--- a/milestone_4/web_development/final_annotation.xlsx
+++ b/milestone_4/web_development/final_annotation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheyanne\ubc\sem2\colx523_adv-corp-ling\COLX_523_zhiyang_yushun_huiyin_trang\milestone_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheyanne\ubc\sem2\colx523_adv-corp-ling\COLX_523_zhiyang_yushun_huiyin_trang\milestone_4\web_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413DB75D-36CE-4EF1-9BE1-A5BB9A93C0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C5C9B-36D8-42CC-867E-282899733991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{694A5816-69B8-6E4D-BAAE-D27818C56BB8}"/>
   </bookViews>
@@ -14096,7 +14096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774309E7-431E-4B41-B6D2-F9C7DD45F957}">
   <dimension ref="A1:J1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -14104,7 +14104,7 @@
   <cols>
     <col min="1" max="1" width="13.5" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="88" style="14" customWidth="1"/>
     <col min="4" max="4" width="22.19921875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.296875" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.296875" style="14" bestFit="1" customWidth="1"/>
